--- a/templates/アセスメントシート原本.xlsx
+++ b/templates/アセスメントシート原本.xlsx
@@ -1,40 +1,586 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29231"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\syuuz\OneDrive\デスクトップ\美幸AIスクール\アセスメントツール\templates\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:8001_{81D75897-F405-4A68-BB9A-F2BC099ED9B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="1764" yWindow="228" windowWidth="21084" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="ｱｾｽﾒﾝﾄｼｰﾄ" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ｱｾｽﾒﾝﾄｼｰﾄ" sheetId="3" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">ｱｾｽﾒﾝﾄｼｰﾄ!$A$1:$R$51</definedName>
+  </definedNames>
+  <calcPr calcId="191028" iterateDelta="1E-4"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="45">
+  <si>
+    <t>子ども自立アシスト事業　アセスメントシート</t>
+    <rPh sb="0" eb="1">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジリツ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジギョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>支援番号</t>
+    <rPh sb="0" eb="2">
+      <t>シエン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>調整中</t>
+    <rPh sb="0" eb="3">
+      <t>チョウセイチュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>担当支援員</t>
+    <rPh sb="0" eb="2">
+      <t>タントウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シエン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>イン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>調整中</t>
+  </si>
+  <si>
+    <t>世帯主氏名</t>
+    <rPh sb="0" eb="3">
+      <t>セタイヌシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シメイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>児童氏名</t>
+    <rPh sb="0" eb="2">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シメイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>性別</t>
+    <rPh sb="0" eb="2">
+      <t>セイベツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>男性</t>
+    <rPh sb="0" eb="2">
+      <t>ダンセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>学校名</t>
+    <rPh sb="0" eb="2">
+      <t>ガッコウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>学校</t>
+    <rPh sb="0" eb="2">
+      <t>ガッコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>学年</t>
+    <rPh sb="0" eb="2">
+      <t>ガクネン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>年</t>
+    <rPh sb="0" eb="1">
+      <t>ネン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ひとり親世帯</t>
+    <rPh sb="3" eb="4">
+      <t>オヤ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>セタイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>該当しない</t>
+  </si>
+  <si>
+    <t>初回アセスメント面談</t>
+    <rPh sb="0" eb="2">
+      <t>ショカイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>メンダン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>面談実施日</t>
+    <rPh sb="0" eb="2">
+      <t>メンダン</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ジッシビ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>■　支援必要　　　　　□　支援不要</t>
+    <rPh sb="2" eb="4">
+      <t>シエン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シエン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>フヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>○　世帯の具体的な課題</t>
+    <rPh sb="2" eb="4">
+      <t>セタイ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>グタイテキ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カダイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">□不登校（登校頻度：）
+□引きこもり（			）
+□生活リズム（　　　　　　　　　　　）
+□生活習慣（			）
+□学習の遅れ・低学力（	　　　　）
+□学習習慣・環境（　　　　　　　　）
+□発達特性or 発達課題（　　　　　　）
+□対人緊張の高さ（			）
+□コミュニケーションに苦手意識がある（			）
+□家庭環境（			）
+□虐待（			）
+□他の世帯員の問題（		）
+□その他
+・
+</t>
+  </si>
+  <si>
+    <t>○　希望する進路</t>
+    <rPh sb="2" eb="4">
+      <t>キボウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シンロ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>確認日　　　　　　　　　□進学　　　□就職
+（具体的内容）　　　
+・　　　　　</t>
+  </si>
+  <si>
+    <t>○　支援計画</t>
+    <rPh sb="2" eb="4">
+      <t>シエン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ケイカク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>＜短期目標＞</t>
+    <rPh sb="1" eb="3">
+      <t>タンキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>モクヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>課題</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">現状 </t>
+  </si>
+  <si>
+    <t>ニーズ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>目標</t>
+    <rPh sb="0" eb="2">
+      <t>モクヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>具体的な方法</t>
+    <rPh sb="0" eb="3">
+      <t>グタイテキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>本人</t>
+    <rPh sb="0" eb="2">
+      <t>ホンニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>保護者</t>
+    <rPh sb="0" eb="3">
+      <t>ホゴシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>＜本事業における達成目標＞</t>
+    <rPh sb="1" eb="2">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジギョウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>タッセイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>モクヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>○　支援の終結</t>
+    <rPh sb="2" eb="4">
+      <t>シエン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シュウケツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>支援終結日</t>
+    <rPh sb="0" eb="2">
+      <t>シエン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シュウケツ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ビ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>終結内容</t>
+    <rPh sb="0" eb="2">
+      <t>シュウケツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　□　目標達成</t>
+    <rPh sb="3" eb="5">
+      <t>モクヒョウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>タッセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>　</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="ＭＳ Ｐ明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>（具体的な達成内容、支援中断理由等）</t>
+    </r>
+    <rPh sb="2" eb="5">
+      <t>グタイテキ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>タッセイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シエン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>チュウダン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>リユウ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>トウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　□　支援中断</t>
+    <rPh sb="3" eb="5">
+      <t>シエン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>チュウダン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　□　その他</t>
+    <rPh sb="5" eb="6">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>○　決定した進路</t>
+    <rPh sb="2" eb="4">
+      <t>ケッテイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シンロ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>確認日</t>
+    <rPh sb="0" eb="2">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ビ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>進路</t>
+    <rPh sb="0" eb="2">
+      <t>シンロ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　□　進学</t>
+    <rPh sb="3" eb="5">
+      <t>シンガク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　（具体的な進学先、就労先等）</t>
+    <rPh sb="6" eb="8">
+      <t>シンガク</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シュウロウ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>トウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　□　就職</t>
+    <rPh sb="3" eb="5">
+      <t>シュウショク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <color theme="1"/>
       <sz val="11"/>
-      <scheme val="minor"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="ＭＳ Ｐ明朝"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐ明朝"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="ＭＳ Ｐ明朝"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="ＭＳ Ｐ明朝"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐ明朝"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="ＭＳ Ｐ明朝"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Yu Gothic UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF000000"/>
+      <name val="ＭＳ Ｐ明朝"/>
+      <family val="1"/>
+      <charset val="128"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -42,92 +588,643 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="68">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+  <cellStyles count="3">
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="標準 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="標準 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>342901</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>19051</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="右矢印 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1592581" y="1836420"/>
+          <a:ext cx="407670" cy="293370"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+            <a:gd name="adj2" fmla="val 117742"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="accent5">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="accent1">
+                <a:tint val="44500"/>
+                <a:satMod val="160000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="accent1">
+                <a:tint val="23500"/>
+                <a:satMod val="160000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="0" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -165,7 +1262,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -199,6 +1296,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -233,9 +1331,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -408,19 +1507,1039 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:Q51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:Q1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="2.109375" customWidth="1"/>
+    <col min="2" max="16" width="5.33203125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.88671875" style="1" customWidth="1"/>
+    <col min="18" max="18" width="1.109375" customWidth="1"/>
+    <col min="19" max="25" width="5.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:17" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="50"/>
+      <c r="Q1" s="51"/>
+    </row>
+    <row r="2" spans="2:17" ht="24.6" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="2:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="33"/>
+      <c r="H3" s="52" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="53"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="55"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="33"/>
+      <c r="O3" s="33"/>
+      <c r="P3" s="56">
+        <v>45765</v>
+      </c>
+      <c r="Q3" s="34"/>
+    </row>
+    <row r="4" spans="2:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="O4" s="23"/>
+      <c r="P4" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q4" s="65"/>
+    </row>
+    <row r="5" spans="2:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="67" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="25"/>
+      <c r="I5" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" s="11"/>
+      <c r="K5" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="M5" s="25"/>
+      <c r="N5" s="25"/>
+      <c r="O5" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="P5" s="47"/>
+      <c r="Q5" s="48"/>
+    </row>
+    <row r="6" spans="2:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+    </row>
+    <row r="7" spans="2:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="60"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="61" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="61"/>
+      <c r="I7" s="62">
+        <v>45765</v>
+      </c>
+      <c r="J7" s="61"/>
+      <c r="K7" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="L7" s="63"/>
+      <c r="M7" s="63"/>
+      <c r="N7" s="63"/>
+      <c r="O7" s="63"/>
+      <c r="P7" s="63"/>
+      <c r="Q7" s="64"/>
+    </row>
+    <row r="8" spans="2:17" ht="4.6500000000000004" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="3"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+    </row>
+    <row r="9" spans="2:17" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="3"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+    </row>
+    <row r="10" spans="2:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+    </row>
+    <row r="11" spans="2:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="57" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="58"/>
+      <c r="D11" s="58"/>
+      <c r="E11" s="58"/>
+      <c r="F11" s="58"/>
+      <c r="G11" s="58"/>
+      <c r="H11" s="58"/>
+      <c r="I11" s="58"/>
+      <c r="J11" s="58"/>
+      <c r="K11" s="58"/>
+      <c r="L11" s="58"/>
+      <c r="M11" s="58"/>
+      <c r="N11" s="58"/>
+      <c r="O11" s="58"/>
+      <c r="P11" s="58"/>
+      <c r="Q11" s="58"/>
+    </row>
+    <row r="12" spans="2:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="58"/>
+      <c r="C12" s="58"/>
+      <c r="D12" s="58"/>
+      <c r="E12" s="58"/>
+      <c r="F12" s="58"/>
+      <c r="G12" s="58"/>
+      <c r="H12" s="58"/>
+      <c r="I12" s="58"/>
+      <c r="J12" s="58"/>
+      <c r="K12" s="58"/>
+      <c r="L12" s="58"/>
+      <c r="M12" s="58"/>
+      <c r="N12" s="58"/>
+      <c r="O12" s="58"/>
+      <c r="P12" s="58"/>
+      <c r="Q12" s="58"/>
+    </row>
+    <row r="13" spans="2:17" ht="253.65" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="58"/>
+      <c r="C13" s="58"/>
+      <c r="D13" s="58"/>
+      <c r="E13" s="58"/>
+      <c r="F13" s="58"/>
+      <c r="G13" s="58"/>
+      <c r="H13" s="58"/>
+      <c r="I13" s="58"/>
+      <c r="J13" s="58"/>
+      <c r="K13" s="58"/>
+      <c r="L13" s="58"/>
+      <c r="M13" s="58"/>
+      <c r="N13" s="58"/>
+      <c r="O13" s="58"/>
+      <c r="P13" s="58"/>
+      <c r="Q13" s="58"/>
+    </row>
+    <row r="14" spans="2:17" ht="54.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="58"/>
+      <c r="C14" s="58"/>
+      <c r="D14" s="58"/>
+      <c r="E14" s="58"/>
+      <c r="F14" s="58"/>
+      <c r="G14" s="58"/>
+      <c r="H14" s="58"/>
+      <c r="I14" s="58"/>
+      <c r="J14" s="58"/>
+      <c r="K14" s="58"/>
+      <c r="L14" s="58"/>
+      <c r="M14" s="58"/>
+      <c r="N14" s="58"/>
+      <c r="O14" s="58"/>
+      <c r="P14" s="58"/>
+      <c r="Q14" s="58"/>
+    </row>
+    <row r="15" spans="2:17" ht="32.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="58"/>
+      <c r="C15" s="58"/>
+      <c r="D15" s="58"/>
+      <c r="E15" s="58"/>
+      <c r="F15" s="58"/>
+      <c r="G15" s="58"/>
+      <c r="H15" s="58"/>
+      <c r="I15" s="58"/>
+      <c r="J15" s="58"/>
+      <c r="K15" s="58"/>
+      <c r="L15" s="58"/>
+      <c r="M15" s="58"/>
+      <c r="N15" s="58"/>
+      <c r="O15" s="58"/>
+      <c r="P15" s="58"/>
+      <c r="Q15" s="58"/>
+    </row>
+    <row r="16" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="2:17" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+    </row>
+    <row r="18" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="57" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="58"/>
+      <c r="D18" s="58"/>
+      <c r="E18" s="58"/>
+      <c r="F18" s="58"/>
+      <c r="G18" s="58"/>
+      <c r="H18" s="58"/>
+      <c r="I18" s="58"/>
+      <c r="J18" s="58"/>
+      <c r="K18" s="58"/>
+      <c r="L18" s="58"/>
+      <c r="M18" s="58"/>
+      <c r="N18" s="58"/>
+      <c r="O18" s="58"/>
+      <c r="P18" s="58"/>
+      <c r="Q18" s="58"/>
+    </row>
+    <row r="19" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="58"/>
+      <c r="C19" s="58"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="58"/>
+      <c r="F19" s="58"/>
+      <c r="G19" s="58"/>
+      <c r="H19" s="58"/>
+      <c r="I19" s="58"/>
+      <c r="J19" s="58"/>
+      <c r="K19" s="58"/>
+      <c r="L19" s="58"/>
+      <c r="M19" s="58"/>
+      <c r="N19" s="58"/>
+      <c r="O19" s="58"/>
+      <c r="P19" s="58"/>
+      <c r="Q19" s="58"/>
+    </row>
+    <row r="20" spans="2:17" ht="68.400000000000006" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="58"/>
+      <c r="C20" s="58"/>
+      <c r="D20" s="58"/>
+      <c r="E20" s="58"/>
+      <c r="F20" s="58"/>
+      <c r="G20" s="58"/>
+      <c r="H20" s="58"/>
+      <c r="I20" s="58"/>
+      <c r="J20" s="58"/>
+      <c r="K20" s="58"/>
+      <c r="L20" s="58"/>
+      <c r="M20" s="58"/>
+      <c r="N20" s="58"/>
+      <c r="O20" s="58"/>
+      <c r="P20" s="58"/>
+      <c r="Q20" s="58"/>
+    </row>
+    <row r="21" spans="2:17" ht="7.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="2:17" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="7"/>
+    </row>
+    <row r="23" spans="2:17" s="5" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="7"/>
+      <c r="Q23" s="7"/>
+    </row>
+    <row r="24" spans="2:17" ht="19.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+    </row>
+    <row r="25" spans="2:17" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="4"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+    </row>
+    <row r="26" spans="2:17" ht="19.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
+    </row>
+    <row r="27" spans="2:17" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="4"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
+    </row>
+    <row r="28" spans="2:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D28" s="14"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="G28" s="42"/>
+      <c r="H28" s="42"/>
+      <c r="I28" s="42"/>
+      <c r="J28" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="K28" s="42"/>
+      <c r="L28" s="42"/>
+      <c r="M28" s="42"/>
+      <c r="N28" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="O28" s="42"/>
+      <c r="P28" s="42"/>
+      <c r="Q28" s="42"/>
+    </row>
+    <row r="29" spans="2:17" ht="68.400000000000006" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="41"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G29" s="40"/>
+      <c r="H29" s="40"/>
+      <c r="I29" s="40"/>
+      <c r="J29" s="45"/>
+      <c r="K29" s="46"/>
+      <c r="L29" s="46"/>
+      <c r="M29" s="46"/>
+      <c r="N29" s="43"/>
+      <c r="O29" s="44"/>
+      <c r="P29" s="44"/>
+      <c r="Q29" s="44"/>
+    </row>
+    <row r="30" spans="2:17" ht="68.400000000000006" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="41"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G30" s="40"/>
+      <c r="H30" s="40"/>
+      <c r="I30" s="40"/>
+      <c r="J30" s="46"/>
+      <c r="K30" s="46"/>
+      <c r="L30" s="46"/>
+      <c r="M30" s="46"/>
+      <c r="N30" s="44"/>
+      <c r="O30" s="44"/>
+      <c r="P30" s="44"/>
+      <c r="Q30" s="44"/>
+    </row>
+    <row r="31" spans="2:17" ht="32.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="3"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="2"/>
+    </row>
+    <row r="32" spans="2:17" ht="19.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="2"/>
+    </row>
+    <row r="33" spans="2:17" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="4"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
+    </row>
+    <row r="34" spans="2:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D34" s="14"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="G34" s="42"/>
+      <c r="H34" s="42"/>
+      <c r="I34" s="42"/>
+      <c r="J34" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="K34" s="42"/>
+      <c r="L34" s="42"/>
+      <c r="M34" s="42"/>
+      <c r="N34" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="O34" s="42"/>
+      <c r="P34" s="42"/>
+      <c r="Q34" s="42"/>
+    </row>
+    <row r="35" spans="2:17" ht="68.400000000000006" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="41"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G35" s="40"/>
+      <c r="H35" s="40"/>
+      <c r="I35" s="40"/>
+      <c r="J35" s="39"/>
+      <c r="K35" s="40"/>
+      <c r="L35" s="40"/>
+      <c r="M35" s="40"/>
+      <c r="N35" s="39"/>
+      <c r="O35" s="39"/>
+      <c r="P35" s="39"/>
+      <c r="Q35" s="39"/>
+    </row>
+    <row r="36" spans="2:17" ht="68.400000000000006" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="41"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G36" s="40"/>
+      <c r="H36" s="40"/>
+      <c r="I36" s="40"/>
+      <c r="J36" s="40"/>
+      <c r="K36" s="40"/>
+      <c r="L36" s="40"/>
+      <c r="M36" s="40"/>
+      <c r="N36" s="39"/>
+      <c r="O36" s="39"/>
+      <c r="P36" s="39"/>
+      <c r="Q36" s="39"/>
+    </row>
+    <row r="37" spans="2:17" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="3"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="2"/>
+    </row>
+    <row r="38" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" s="5" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
+      <c r="P39" s="2"/>
+      <c r="Q39" s="2"/>
+    </row>
+    <row r="40" spans="2:17" s="5" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="C40" s="33"/>
+      <c r="D40" s="33"/>
+      <c r="E40" s="33"/>
+      <c r="F40" s="33"/>
+      <c r="G40" s="33"/>
+      <c r="H40" s="33"/>
+      <c r="I40" s="33"/>
+      <c r="J40" s="33"/>
+      <c r="K40" s="33"/>
+      <c r="L40" s="33"/>
+      <c r="M40" s="33"/>
+      <c r="N40" s="33"/>
+      <c r="O40" s="33"/>
+      <c r="P40" s="33"/>
+      <c r="Q40" s="34"/>
+    </row>
+    <row r="41" spans="2:17" s="5" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C41" s="23"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="F41" s="26"/>
+      <c r="G41" s="26"/>
+      <c r="H41" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="I41" s="27"/>
+      <c r="J41" s="27"/>
+      <c r="K41" s="27"/>
+      <c r="L41" s="27"/>
+      <c r="M41" s="27"/>
+      <c r="N41" s="27"/>
+      <c r="O41" s="27"/>
+      <c r="P41" s="27"/>
+      <c r="Q41" s="28"/>
+    </row>
+    <row r="42" spans="2:17" s="5" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="22"/>
+      <c r="C42" s="23"/>
+      <c r="D42" s="23"/>
+      <c r="E42" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="F42" s="26"/>
+      <c r="G42" s="26"/>
+      <c r="H42" s="27"/>
+      <c r="I42" s="27"/>
+      <c r="J42" s="27"/>
+      <c r="K42" s="27"/>
+      <c r="L42" s="27"/>
+      <c r="M42" s="27"/>
+      <c r="N42" s="27"/>
+      <c r="O42" s="27"/>
+      <c r="P42" s="27"/>
+      <c r="Q42" s="28"/>
+    </row>
+    <row r="43" spans="2:17" s="5" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="24"/>
+      <c r="C43" s="25"/>
+      <c r="D43" s="25"/>
+      <c r="E43" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="F43" s="31"/>
+      <c r="G43" s="31"/>
+      <c r="H43" s="29"/>
+      <c r="I43" s="29"/>
+      <c r="J43" s="29"/>
+      <c r="K43" s="29"/>
+      <c r="L43" s="29"/>
+      <c r="M43" s="29"/>
+      <c r="N43" s="29"/>
+      <c r="O43" s="29"/>
+      <c r="P43" s="29"/>
+      <c r="Q43" s="30"/>
+    </row>
+    <row r="44" spans="2:17" s="5" customFormat="1" ht="4.6500000000000004" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
+      <c r="P44" s="2"/>
+      <c r="Q44" s="2"/>
+    </row>
+    <row r="45" spans="2:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B45" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" s="5" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B46" s="3"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2"/>
+      <c r="K46" s="2"/>
+      <c r="L46" s="2"/>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
+      <c r="O46" s="2"/>
+      <c r="P46" s="2"/>
+      <c r="Q46" s="2"/>
+    </row>
+    <row r="47" spans="2:17" s="5" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B47" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="C47" s="33"/>
+      <c r="D47" s="33"/>
+      <c r="E47" s="33"/>
+      <c r="F47" s="33"/>
+      <c r="G47" s="33"/>
+      <c r="H47" s="33"/>
+      <c r="I47" s="33"/>
+      <c r="J47" s="33"/>
+      <c r="K47" s="33"/>
+      <c r="L47" s="33"/>
+      <c r="M47" s="33"/>
+      <c r="N47" s="33"/>
+      <c r="O47" s="33"/>
+      <c r="P47" s="33"/>
+      <c r="Q47" s="34"/>
+    </row>
+    <row r="48" spans="2:17" s="5" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B48" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="C48" s="23"/>
+      <c r="D48" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="E48" s="26"/>
+      <c r="F48" s="26"/>
+      <c r="G48" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="H48" s="35"/>
+      <c r="I48" s="35"/>
+      <c r="J48" s="35"/>
+      <c r="K48" s="35"/>
+      <c r="L48" s="35"/>
+      <c r="M48" s="35"/>
+      <c r="N48" s="35"/>
+      <c r="O48" s="35"/>
+      <c r="P48" s="35"/>
+      <c r="Q48" s="36"/>
+    </row>
+    <row r="49" spans="2:17" s="5" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B49" s="22"/>
+      <c r="C49" s="23"/>
+      <c r="D49" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="E49" s="26"/>
+      <c r="F49" s="26"/>
+      <c r="G49" s="35"/>
+      <c r="H49" s="35"/>
+      <c r="I49" s="35"/>
+      <c r="J49" s="35"/>
+      <c r="K49" s="35"/>
+      <c r="L49" s="35"/>
+      <c r="M49" s="35"/>
+      <c r="N49" s="35"/>
+      <c r="O49" s="35"/>
+      <c r="P49" s="35"/>
+      <c r="Q49" s="36"/>
+    </row>
+    <row r="50" spans="2:17" s="5" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B50" s="24"/>
+      <c r="C50" s="25"/>
+      <c r="D50" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="E50" s="31"/>
+      <c r="F50" s="31"/>
+      <c r="G50" s="37"/>
+      <c r="H50" s="37"/>
+      <c r="I50" s="37"/>
+      <c r="J50" s="37"/>
+      <c r="K50" s="37"/>
+      <c r="L50" s="37"/>
+      <c r="M50" s="37"/>
+      <c r="N50" s="37"/>
+      <c r="O50" s="37"/>
+      <c r="P50" s="37"/>
+      <c r="Q50" s="38"/>
+    </row>
+    <row r="51" spans="2:17" s="5" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="7"/>
+      <c r="I51" s="7"/>
+      <c r="J51" s="7"/>
+      <c r="K51" s="7"/>
+      <c r="L51" s="7"/>
+      <c r="M51" s="7"/>
+      <c r="N51" s="7"/>
+      <c r="O51" s="7"/>
+      <c r="P51" s="7"/>
+      <c r="Q51" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="59">
+    <mergeCell ref="B11:Q15"/>
+    <mergeCell ref="B18:Q20"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:M4"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:Q7"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="O5:Q5"/>
+    <mergeCell ref="B1:Q1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="N28:Q28"/>
+    <mergeCell ref="N29:Q30"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="J28:M28"/>
+    <mergeCell ref="J34:M34"/>
+    <mergeCell ref="N34:Q34"/>
+    <mergeCell ref="J29:M30"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J35:M36"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="F34:I34"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="E40:Q40"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:E36"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="N35:Q36"/>
+    <mergeCell ref="B48:C50"/>
+    <mergeCell ref="D48:F48"/>
+    <mergeCell ref="G48:Q50"/>
+    <mergeCell ref="D49:F49"/>
+    <mergeCell ref="D50:F50"/>
+    <mergeCell ref="H41:Q43"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:Q47"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="C29:E30"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="B41:D43"/>
+    <mergeCell ref="E41:G41"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.70866141732283472" right="0.51181102362204722" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <rowBreaks count="1" manualBreakCount="1">
+    <brk id="22" max="16383" man="1"/>
+  </rowBreaks>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>